--- a/BOM's/71023-20 Unikitty 500%.xlsx
+++ b/BOM's/71023-20 Unikitty 500%.xlsx
@@ -89,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr&quot;_-;\-* #,##0.00\ &quot;kr&quot;_-;_-* &quot;-&quot;??\ &quot;kr&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="[h]:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -132,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -480,6 +480,9 @@
       <c r="G2" s="3">
         <v>0.18541666666666667</v>
       </c>
+      <c r="H2" s="3">
+        <v>0.19305555555555554</v>
+      </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
@@ -506,6 +509,9 @@
       <c r="G3" s="3">
         <v>0.21041666666666667</v>
       </c>
+      <c r="H3" s="3">
+        <v>0.21805555555555556</v>
+      </c>
       <c r="I3" t="s">
         <v>9</v>
       </c>
@@ -592,6 +598,9 @@
       <c r="G7" s="3">
         <v>7.013888888888889E-2</v>
       </c>
+      <c r="H7" s="3">
+        <v>7.1527777777777787E-2</v>
+      </c>
       <c r="I7" t="s">
         <v>18</v>
       </c>
@@ -643,6 +652,9 @@
       </c>
       <c r="G9" s="3">
         <v>0.22361111111111109</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.23055555555555554</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
@@ -679,7 +691,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>0.23541666666666666</v>
+        <v>0.94861111111111107</v>
       </c>
     </row>
   </sheetData>
